--- a/data/preprocessed_test_data.xlsx
+++ b/data/preprocessed_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobi\Desktop\master_thesis_kismed_TU_Darmstadt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB24B67-5793-4D58-B90E-12D895EDA8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEA6D3F-C403-410E-B901-EEF781F67578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="228">
   <si>
     <t>Outcome (1=yes)</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>OmologousTransfusion(1=yes)</t>
-  </si>
-  <si>
-    <t>OmologousNUnits</t>
   </si>
   <si>
     <t>Plasma(1=yes)</t>
@@ -1045,6 +1042,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,9 +1062,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,85 +1343,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FF61"/>
+  <dimension ref="A1:FE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F295" sqref="F295"/>
+    <sheetView tabSelected="1" topLeftCell="DX1" workbookViewId="0">
+      <selection activeCell="EA1" sqref="EA1:EA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.68359375" style="13"/>
-    <col min="2" max="5" width="8.83984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83984375" style="46" customWidth="1"/>
-    <col min="7" max="21" width="8.83984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13"/>
+    <col min="2" max="5" width="8.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="46" customWidth="1"/>
+    <col min="7" max="21" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="80" width="8.83984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.68359375" style="13"/>
-    <col min="82" max="162" width="8.83984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="163" max="16384" width="8.68359375" style="13"/>
+    <col min="24" max="80" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.7109375" style="13"/>
+    <col min="82" max="161" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="162" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:162" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="55"/>
+    <row r="1" spans="1:161" x14ac:dyDescent="0.25">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="56"/>
       <c r="BH1" s="14"/>
       <c r="BI1" s="15"/>
       <c r="BJ1" s="15"/>
@@ -1526,12 +1523,11 @@
       <c r="FB1" s="15"/>
       <c r="FC1" s="15"/>
       <c r="FD1" s="15"/>
-      <c r="FE1" s="15"/>
-      <c r="FF1" s="17"/>
+      <c r="FE1" s="17"/>
     </row>
-    <row r="2" spans="1:162" s="10" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:161" s="10" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
@@ -1546,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -1972,10 +1968,10 @@
         <v>146</v>
       </c>
       <c r="ER2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="ES2" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="ES2" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="ET2" s="9" t="s">
         <v>148</v>
@@ -2010,16 +2006,13 @@
       <c r="FD2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="FE2" s="9" t="s">
+      <c r="FE2" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="FF2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:161" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:162" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="29" t="s">
-        <v>161</v>
       </c>
       <c r="B3" s="44">
         <v>0</v>
@@ -2141,7 +2134,7 @@
         <v>49</v>
       </c>
       <c r="BF3" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG3" s="13">
         <f t="shared" ref="BG3:BG36" si="0">IF(BF3="M",1,0)</f>
@@ -2212,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="CC3" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD3" s="13">
         <v>0</v>
@@ -2361,38 +2354,38 @@
       <c r="DZ3" s="13">
         <v>0</v>
       </c>
-      <c r="EA3" s="13" t="s">
-        <v>163</v>
+      <c r="EA3" s="13">
+        <v>0</v>
       </c>
       <c r="EB3" s="13">
         <v>0</v>
       </c>
       <c r="EC3" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="ED3" s="13">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="EE3" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EF3" s="13">
-        <v>6</v>
-      </c>
-      <c r="EG3" s="13">
         <v>0.8</v>
       </c>
-      <c r="EH3" s="33">
+      <c r="EG3" s="33">
         <v>-0.11012235817575081</v>
+      </c>
+      <c r="EH3" s="13">
+        <v>-9.8999999999999977E-2</v>
       </c>
       <c r="EI3" s="13">
         <v>-9.8999999999999977E-2</v>
       </c>
       <c r="EJ3" s="13">
-        <v>-9.8999999999999977E-2</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="EK3" s="13">
-        <v>1.2989999999999999</v>
+        <v>0</v>
       </c>
       <c r="EL3" s="13">
         <v>0</v>
@@ -2452,15 +2445,12 @@
         <v>0</v>
       </c>
       <c r="FE3" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF3" s="13">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="44">
         <v>1</v>
@@ -2475,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="46">
-        <f t="shared" ref="F4:F67" si="2">IF(OR(B4=1,C4=1,D4=1,E4=1),1,0)</f>
+        <f t="shared" ref="F4:F61" si="2">IF(OR(B4=1,C4=1,D4=1,E4=1),1,0)</f>
         <v>1</v>
       </c>
       <c r="G4" s="10"/>
@@ -2582,7 +2572,7 @@
         <v>52</v>
       </c>
       <c r="BF4" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG4" s="13">
         <f t="shared" si="0"/>
@@ -2653,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="CC4" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD4" s="13">
         <v>0</v>
@@ -2791,7 +2781,7 @@
         <v>30</v>
       </c>
       <c r="DW4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX4" s="13">
         <v>800</v>
@@ -2802,47 +2792,47 @@
       <c r="DZ4" s="13">
         <v>0</v>
       </c>
-      <c r="EA4" s="13" t="s">
-        <v>163</v>
+      <c r="EA4" s="13">
+        <v>0</v>
       </c>
       <c r="EB4" s="13">
         <v>0</v>
       </c>
       <c r="EC4" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="ED4" s="13">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="EE4" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="EF4" s="13">
-        <v>9</v>
-      </c>
-      <c r="EG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="EH4" s="33">
+        <v>1</v>
+      </c>
+      <c r="EG4" s="33">
         <v>0.11234705228031143</v>
+      </c>
+      <c r="EH4" s="13">
+        <v>0.10099999999999998</v>
       </c>
       <c r="EI4" s="13">
         <v>0.10099999999999998</v>
       </c>
       <c r="EJ4" s="13">
-        <v>0.10099999999999998</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="EK4" s="13">
-        <v>0.69899999999999995</v>
+        <v>0</v>
       </c>
       <c r="EL4" s="13">
         <v>0</v>
       </c>
       <c r="EM4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN4" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO4" s="13">
         <v>0</v>
@@ -2893,15 +2883,12 @@
         <v>0</v>
       </c>
       <c r="FE4" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF4" s="13">
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="44">
         <v>0</v>
@@ -3023,7 +3010,7 @@
         <v>72</v>
       </c>
       <c r="BF5" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG5" s="13">
         <f t="shared" si="0"/>
@@ -3094,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="CC5" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD5" s="13">
         <v>0</v>
@@ -3243,38 +3230,38 @@
       <c r="DZ5" s="13">
         <v>0</v>
       </c>
-      <c r="EA5" s="13" t="s">
-        <v>163</v>
+      <c r="EA5" s="13">
+        <v>0</v>
       </c>
       <c r="EB5" s="13">
         <v>0</v>
       </c>
       <c r="EC5" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="ED5" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="EE5" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EF5" s="13">
-        <v>8</v>
-      </c>
-      <c r="EG5" s="13">
         <v>0.8</v>
       </c>
-      <c r="EH5" s="33">
+      <c r="EG5" s="33">
+        <v>0</v>
+      </c>
+      <c r="EH5" s="13">
         <v>0</v>
       </c>
       <c r="EI5" s="13">
         <v>0</v>
       </c>
       <c r="EJ5" s="13">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="EK5" s="13">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="EL5" s="13">
         <v>0</v>
@@ -3334,15 +3321,12 @@
         <v>0</v>
       </c>
       <c r="FE5" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="44">
         <v>0</v>
@@ -3464,7 +3448,7 @@
         <v>81</v>
       </c>
       <c r="BF6" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG6" s="13">
         <f t="shared" si="0"/>
@@ -3535,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="CC6" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD6" s="13">
         <v>0</v>
@@ -3684,38 +3668,38 @@
       <c r="DZ6" s="13">
         <v>1</v>
       </c>
-      <c r="EA6" s="13" t="s">
-        <v>163</v>
+      <c r="EA6" s="13">
+        <v>0</v>
       </c>
       <c r="EB6" s="13">
         <v>0</v>
       </c>
       <c r="EC6" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="ED6" s="13">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="EE6" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EF6" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG6" s="13">
         <v>0.6</v>
       </c>
-      <c r="EH6" s="33">
+      <c r="EG6" s="33">
         <v>-0.14163090128755362</v>
+      </c>
+      <c r="EH6" s="13">
+        <v>-9.8999999999999977E-2</v>
       </c>
       <c r="EI6" s="13">
         <v>-9.8999999999999977E-2</v>
       </c>
       <c r="EJ6" s="13">
-        <v>-9.8999999999999977E-2</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="EK6" s="13">
-        <v>0.69899999999999995</v>
+        <v>0</v>
       </c>
       <c r="EL6" s="13">
         <v>0</v>
@@ -3775,15 +3759,12 @@
         <v>0</v>
       </c>
       <c r="FE6" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF6" s="13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="44">
         <v>0</v>
@@ -3905,7 +3886,7 @@
         <v>67</v>
       </c>
       <c r="BF7" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG7" s="13">
         <f t="shared" si="0"/>
@@ -3976,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="CC7" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD7" s="13">
         <v>0</v>
@@ -4125,38 +4106,38 @@
       <c r="DZ7" s="13">
         <v>0</v>
       </c>
-      <c r="EA7" s="13" t="s">
-        <v>163</v>
+      <c r="EA7" s="13">
+        <v>0</v>
       </c>
       <c r="EB7" s="13">
         <v>0</v>
       </c>
       <c r="EC7" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="ED7" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EE7" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="EF7" s="13">
-        <v>9</v>
-      </c>
-      <c r="EG7" s="13">
         <v>0.69899999999999995</v>
       </c>
-      <c r="EH7" s="33">
+      <c r="EG7" s="33">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="13">
         <v>0</v>
       </c>
       <c r="EI7" s="13">
         <v>0</v>
       </c>
       <c r="EJ7" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EK7" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL7" s="13">
         <v>0</v>
@@ -4216,15 +4197,12 @@
         <v>0</v>
       </c>
       <c r="FE7" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF7" s="13">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="44">
         <v>1</v>
@@ -4346,7 +4324,7 @@
         <v>70</v>
       </c>
       <c r="BF8" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG8" s="13">
         <f t="shared" si="0"/>
@@ -4417,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="CC8" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD8" s="13">
         <v>0</v>
@@ -4566,47 +4544,47 @@
       <c r="DZ8" s="13">
         <v>1</v>
       </c>
-      <c r="EA8" s="13" t="s">
-        <v>163</v>
+      <c r="EA8" s="13">
+        <v>0</v>
       </c>
       <c r="EB8" s="13">
         <v>0</v>
       </c>
       <c r="EC8" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="ED8" s="13">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="EE8" s="13">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="EF8" s="13">
-        <v>31</v>
-      </c>
-      <c r="EG8" s="13">
         <v>2.2989999999999999</v>
       </c>
-      <c r="EH8" s="33">
+      <c r="EG8" s="33">
         <v>0.14949999999999997</v>
+      </c>
+      <c r="EH8" s="13">
+        <v>0.29899999999999993</v>
       </c>
       <c r="EI8" s="13">
         <v>0.29899999999999993</v>
       </c>
       <c r="EJ8" s="13">
-        <v>0.29899999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="EK8" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL8" s="13">
         <v>0</v>
       </c>
       <c r="EM8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO8" s="13">
         <v>0</v>
@@ -4633,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="EW8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY8" s="13">
         <v>0</v>
@@ -4657,15 +4635,12 @@
         <v>0</v>
       </c>
       <c r="FE8" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF8" s="13">
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="44">
         <v>0</v>
@@ -4787,7 +4762,7 @@
         <v>67</v>
       </c>
       <c r="BF9" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG9" s="13">
         <f t="shared" si="0"/>
@@ -4858,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="CC9" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CD9" s="13">
         <v>0</v>
@@ -5007,38 +4982,38 @@
       <c r="DZ9" s="13">
         <v>1</v>
       </c>
-      <c r="EA9" s="13" t="s">
-        <v>163</v>
+      <c r="EA9" s="13">
+        <v>0</v>
       </c>
       <c r="EB9" s="13">
         <v>0</v>
       </c>
       <c r="EC9" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="ED9" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EE9" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="EF9" s="13">
-        <v>6</v>
-      </c>
-      <c r="EG9" s="13">
         <v>0.5</v>
       </c>
-      <c r="EH9" s="33">
+      <c r="EG9" s="33">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="13">
         <v>0</v>
       </c>
       <c r="EI9" s="13">
         <v>0</v>
       </c>
       <c r="EJ9" s="13">
-        <v>0</v>
+        <v>1.399</v>
       </c>
       <c r="EK9" s="13">
-        <v>1.399</v>
+        <v>0</v>
       </c>
       <c r="EL9" s="13">
         <v>0</v>
@@ -5098,15 +5073,12 @@
         <v>0</v>
       </c>
       <c r="FE9" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF9" s="13">
         <v>1.899</v>
       </c>
     </row>
-    <row r="10" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="44">
         <v>0</v>
@@ -5228,7 +5200,7 @@
         <v>49</v>
       </c>
       <c r="BF10" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG10" s="13">
         <f t="shared" si="0"/>
@@ -5299,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="CC10" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD10" s="13">
         <v>0</v>
@@ -5448,106 +5420,103 @@
       <c r="DZ10" s="13">
         <v>0</v>
       </c>
-      <c r="EA10" s="13" t="s">
-        <v>163</v>
+      <c r="EA10" s="13">
+        <v>0</v>
       </c>
       <c r="EB10" s="13">
         <v>0</v>
       </c>
       <c r="EC10" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ED10" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="EE10" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EF10" s="13">
-        <v>5</v>
-      </c>
-      <c r="EG10" s="13">
         <v>0.69899999999999995</v>
       </c>
-      <c r="EH10" s="33">
+      <c r="EG10" s="33">
+        <v>-0.30100000000000005</v>
+      </c>
+      <c r="EH10" s="13">
         <v>-0.30100000000000005</v>
       </c>
       <c r="EI10" s="13">
         <v>-0.30100000000000005</v>
       </c>
       <c r="EJ10" s="13">
-        <v>-0.30100000000000005</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="EK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="13">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="13">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="13">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="13">
         <v>0.89900000000000002</v>
       </c>
-      <c r="EL10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EM10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EN10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EO10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EP10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EQ10" s="13">
-        <v>0</v>
-      </c>
-      <c r="ER10" s="13">
-        <v>0</v>
-      </c>
-      <c r="ES10" s="13">
-        <v>0</v>
-      </c>
-      <c r="ET10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EU10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EV10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EW10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EX10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EY10" s="13">
-        <v>0</v>
-      </c>
-      <c r="EZ10" s="13">
-        <v>0</v>
-      </c>
-      <c r="FA10" s="13">
-        <v>0</v>
-      </c>
-      <c r="FB10" s="13">
-        <v>0</v>
-      </c>
-      <c r="FC10" s="13">
-        <v>0</v>
-      </c>
-      <c r="FD10" s="13">
-        <v>0</v>
-      </c>
-      <c r="FE10" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF10" s="13">
-        <v>0.89900000000000002</v>
-      </c>
     </row>
-    <row r="11" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="44">
         <v>0</v>
@@ -5595,7 +5564,7 @@
         <v>64</v>
       </c>
       <c r="BF11" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG11" s="13">
         <f t="shared" si="0"/>
@@ -5666,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="CC11" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD11" s="13">
         <v>0</v>
@@ -5815,38 +5784,38 @@
       <c r="DZ11" s="13">
         <v>0</v>
       </c>
-      <c r="EA11" s="13" t="s">
-        <v>163</v>
+      <c r="EA11" s="13">
+        <v>0</v>
       </c>
       <c r="EB11" s="13">
         <v>0</v>
       </c>
       <c r="EC11" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="ED11" s="13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="EE11" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EF11" s="13">
-        <v>5</v>
-      </c>
-      <c r="EG11" s="13">
-        <v>1</v>
-      </c>
-      <c r="EH11" s="33">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="33">
         <v>-9.0909090909090981E-2</v>
+      </c>
+      <c r="EH11" s="13">
+        <v>-0.10000000000000009</v>
       </c>
       <c r="EI11" s="13">
         <v>-0.10000000000000009</v>
       </c>
       <c r="EJ11" s="13">
-        <v>-0.10000000000000009</v>
+        <v>1.2</v>
       </c>
       <c r="EK11" s="13">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="EL11" s="13">
         <v>0</v>
@@ -5906,15 +5875,12 @@
         <v>0</v>
       </c>
       <c r="FE11" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF11" s="13">
         <v>1.2989999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="44">
         <v>1</v>
@@ -6024,7 +5990,7 @@
         <v>63</v>
       </c>
       <c r="BF12" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG12" s="13">
         <f t="shared" si="0"/>
@@ -6095,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="CC12" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CD12" s="13">
         <v>0</v>
@@ -6244,38 +6210,38 @@
       <c r="DZ12" s="13">
         <v>0</v>
       </c>
-      <c r="EA12" s="13" t="s">
-        <v>163</v>
+      <c r="EA12" s="13">
+        <v>0</v>
       </c>
       <c r="EB12" s="13">
         <v>0</v>
       </c>
       <c r="EC12" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="ED12" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="EE12" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EF12" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG12" s="13">
         <v>0.8</v>
       </c>
-      <c r="EH12" s="33">
+      <c r="EG12" s="33">
         <v>0.14449213161659527</v>
+      </c>
+      <c r="EH12" s="13">
+        <v>0.10100000000000009</v>
       </c>
       <c r="EI12" s="13">
         <v>0.10100000000000009</v>
       </c>
       <c r="EJ12" s="13">
-        <v>0.10100000000000009</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="EK12" s="13">
-        <v>0.89900000000000002</v>
+        <v>0</v>
       </c>
       <c r="EL12" s="13">
         <v>0</v>
@@ -6335,15 +6301,12 @@
         <v>0</v>
       </c>
       <c r="FE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF12" s="13">
         <v>1.399</v>
       </c>
     </row>
-    <row r="13" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="44">
         <v>0</v>
@@ -6453,7 +6416,7 @@
         <v>63</v>
       </c>
       <c r="BF13" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG13" s="13">
         <f t="shared" si="0"/>
@@ -6524,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="CC13" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD13" s="13">
         <v>0</v>
@@ -6662,7 +6625,7 @@
         <v>34</v>
       </c>
       <c r="DW13" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX13" s="13">
         <v>100</v>
@@ -6673,38 +6636,38 @@
       <c r="DZ13" s="13">
         <v>0</v>
       </c>
-      <c r="EA13" s="13" t="s">
-        <v>163</v>
+      <c r="EA13" s="13">
+        <v>0</v>
       </c>
       <c r="EB13" s="13">
         <v>0</v>
       </c>
       <c r="EC13" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="ED13" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EE13" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EF13" s="13">
-        <v>8</v>
-      </c>
-      <c r="EG13" s="13">
         <v>0.69899999999999995</v>
       </c>
-      <c r="EH13" s="33">
+      <c r="EG13" s="33">
+        <v>0</v>
+      </c>
+      <c r="EH13" s="13">
         <v>0</v>
       </c>
       <c r="EI13" s="13">
         <v>0</v>
       </c>
       <c r="EJ13" s="13">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="EK13" s="13">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="EL13" s="13">
         <v>0</v>
@@ -6764,15 +6727,12 @@
         <v>0</v>
       </c>
       <c r="FE13" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF13" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="44">
         <v>1</v>
@@ -6882,7 +6842,7 @@
         <v>70</v>
       </c>
       <c r="BF14" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG14" s="13">
         <f t="shared" si="0"/>
@@ -6953,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="CC14" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD14" s="13">
         <v>1</v>
@@ -7102,38 +7062,38 @@
       <c r="DZ14" s="13">
         <v>1</v>
       </c>
-      <c r="EA14" s="13" t="s">
-        <v>163</v>
+      <c r="EA14" s="13">
+        <v>0</v>
       </c>
       <c r="EB14" s="13">
         <v>0</v>
       </c>
       <c r="EC14" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="ED14" s="13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="EE14" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EF14" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG14" s="13">
         <v>0.8</v>
       </c>
-      <c r="EH14" s="33">
+      <c r="EG14" s="33">
         <v>0.33333333333333348</v>
+      </c>
+      <c r="EH14" s="13">
+        <v>0.20000000000000007</v>
       </c>
       <c r="EI14" s="13">
         <v>0.20000000000000007</v>
       </c>
       <c r="EJ14" s="13">
-        <v>0.20000000000000007</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="EK14" s="13">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="EL14" s="13">
         <v>0</v>
@@ -7193,15 +7153,12 @@
         <v>0</v>
       </c>
       <c r="FE14" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF14" s="13">
         <v>2.5990000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="44">
         <v>0</v>
@@ -7311,7 +7268,7 @@
         <v>69</v>
       </c>
       <c r="BF15" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG15" s="13">
         <f t="shared" si="0"/>
@@ -7382,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="CC15" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CD15" s="13">
         <v>0</v>
@@ -7531,38 +7488,38 @@
       <c r="DZ15" s="13">
         <v>1</v>
       </c>
-      <c r="EA15" s="13" t="s">
-        <v>163</v>
+      <c r="EA15" s="13">
+        <v>0</v>
       </c>
       <c r="EB15" s="13">
         <v>0</v>
       </c>
       <c r="EC15" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="ED15" s="13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="EE15" s="13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="EF15" s="13">
-        <v>11</v>
-      </c>
-      <c r="EG15" s="13">
-        <v>1</v>
-      </c>
-      <c r="EH15" s="33">
+        <v>1</v>
+      </c>
+      <c r="EG15" s="33">
         <v>-0.16666666666666663</v>
+      </c>
+      <c r="EH15" s="13">
+        <v>-0.19999999999999996</v>
       </c>
       <c r="EI15" s="13">
         <v>-0.19999999999999996</v>
       </c>
       <c r="EJ15" s="13">
-        <v>-0.19999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="EK15" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL15" s="13">
         <v>0</v>
@@ -7622,15 +7579,12 @@
         <v>0</v>
       </c>
       <c r="FE15" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF15" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="44">
         <v>1</v>
@@ -7740,7 +7694,7 @@
         <v>67</v>
       </c>
       <c r="BF16" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG16" s="13">
         <f t="shared" si="0"/>
@@ -7811,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="CC16" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD16" s="13">
         <v>1</v>
@@ -7960,38 +7914,38 @@
       <c r="DZ16" s="13">
         <v>0</v>
       </c>
-      <c r="EA16" s="13" t="s">
-        <v>163</v>
+      <c r="EA16" s="13">
+        <v>0</v>
       </c>
       <c r="EB16" s="13">
         <v>0</v>
       </c>
       <c r="EC16" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="ED16" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EE16" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EF16" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG16" s="13">
         <v>1.2</v>
       </c>
-      <c r="EH16" s="33">
+      <c r="EG16" s="33">
         <v>0.33481646273637367</v>
+      </c>
+      <c r="EH16" s="13">
+        <v>0.30099999999999993</v>
       </c>
       <c r="EI16" s="13">
         <v>0.30099999999999993</v>
       </c>
       <c r="EJ16" s="13">
-        <v>0.30099999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="EK16" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL16" s="13">
         <v>0</v>
@@ -8009,10 +7963,10 @@
         <v>0</v>
       </c>
       <c r="EQ16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER16" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES16" s="13">
         <v>0</v>
@@ -8051,15 +8005,12 @@
         <v>0</v>
       </c>
       <c r="FE16" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF16" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="44">
         <v>0</v>
@@ -8107,7 +8058,7 @@
         <v>59</v>
       </c>
       <c r="BF17" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG17" s="13">
         <f t="shared" si="0"/>
@@ -8127,7 +8078,7 @@
         <v>65</v>
       </c>
       <c r="BL17" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BM17" s="13">
         <v>1</v>
@@ -8178,7 +8129,7 @@
         <v>1</v>
       </c>
       <c r="CC17" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD17" s="13">
         <v>0</v>
@@ -8327,44 +8278,44 @@
       <c r="DZ17" s="13">
         <v>1</v>
       </c>
-      <c r="EA17" s="13" t="s">
-        <v>163</v>
+      <c r="EA17" s="13">
+        <v>0</v>
       </c>
       <c r="EB17" s="13">
         <v>0</v>
       </c>
       <c r="EC17" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="ED17" s="13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="EE17" s="13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="EF17" s="13">
-        <v>11</v>
-      </c>
-      <c r="EG17" s="13">
         <v>0.89900000000000002</v>
       </c>
-      <c r="EH17" s="33">
+      <c r="EG17" s="33">
+        <v>0</v>
+      </c>
+      <c r="EI17" s="13">
         <v>0</v>
       </c>
       <c r="EJ17" s="13">
-        <v>0</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="EK17" s="13">
-        <v>0.69899999999999995</v>
+        <v>0</v>
       </c>
       <c r="EL17" s="13">
         <v>0</v>
       </c>
       <c r="EM17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO17" s="13">
         <v>0</v>
@@ -8415,15 +8366,12 @@
         <v>0</v>
       </c>
       <c r="FE17" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF17" s="13">
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="44">
         <v>0</v>
@@ -8533,7 +8481,7 @@
         <v>70</v>
       </c>
       <c r="BF18" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG18" s="13">
         <f t="shared" si="0"/>
@@ -8604,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="CC18" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD18" s="13">
         <v>0</v>
@@ -8753,38 +8701,38 @@
       <c r="DZ18" s="13">
         <v>0</v>
       </c>
-      <c r="EA18" s="13" t="s">
-        <v>163</v>
+      <c r="EA18" s="13">
+        <v>0</v>
       </c>
       <c r="EB18" s="13">
         <v>0</v>
       </c>
       <c r="EC18" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="ED18" s="13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="EE18" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EF18" s="13">
-        <v>5</v>
-      </c>
-      <c r="EG18" s="13">
         <v>0.89900000000000002</v>
       </c>
-      <c r="EH18" s="33">
+      <c r="EG18" s="33">
         <v>-0.30792917628945338</v>
+      </c>
+      <c r="EH18" s="13">
+        <v>-0.39999999999999991</v>
       </c>
       <c r="EI18" s="13">
         <v>-0.39999999999999991</v>
       </c>
       <c r="EJ18" s="13">
-        <v>-0.39999999999999991</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="EK18" s="13">
-        <v>0.69899999999999995</v>
+        <v>0</v>
       </c>
       <c r="EL18" s="13">
         <v>0</v>
@@ -8844,15 +8792,12 @@
         <v>0</v>
       </c>
       <c r="FE18" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF18" s="13">
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="44">
         <v>1</v>
@@ -8962,7 +8907,7 @@
         <v>70</v>
       </c>
       <c r="BF19" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG19" s="13">
         <f t="shared" si="0"/>
@@ -9033,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="CC19" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD19" s="13">
         <v>0</v>
@@ -9182,38 +9127,38 @@
       <c r="DZ19" s="13">
         <v>0</v>
       </c>
-      <c r="EA19" s="13" t="s">
-        <v>163</v>
+      <c r="EA19" s="13">
+        <v>0</v>
       </c>
       <c r="EB19" s="13">
         <v>0</v>
       </c>
       <c r="EC19" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="ED19" s="13">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="EE19" s="13">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="EF19" s="13">
-        <v>25</v>
-      </c>
-      <c r="EG19" s="13">
         <v>0.82</v>
       </c>
-      <c r="EH19" s="33">
+      <c r="EG19" s="33">
         <v>2.4999999999999883E-2</v>
+      </c>
+      <c r="EH19" s="13">
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="EI19" s="13">
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="EJ19" s="13">
-        <v>1.9999999999999907E-2</v>
+        <v>0.61</v>
       </c>
       <c r="EK19" s="13">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="EL19" s="13">
         <v>0</v>
@@ -9273,15 +9218,12 @@
         <v>0</v>
       </c>
       <c r="FE19" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF19" s="13">
         <v>1.399</v>
       </c>
     </row>
-    <row r="20" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="44">
         <v>1</v>
@@ -9391,7 +9333,7 @@
         <v>57</v>
       </c>
       <c r="BF20" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG20" s="13">
         <f t="shared" si="0"/>
@@ -9462,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="CC20" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CD20" s="13">
         <v>0</v>
@@ -9611,38 +9553,38 @@
       <c r="DZ20" s="13">
         <v>0</v>
       </c>
-      <c r="EA20" s="13" t="s">
-        <v>163</v>
+      <c r="EA20" s="13">
+        <v>0</v>
       </c>
       <c r="EB20" s="13">
         <v>0</v>
       </c>
       <c r="EC20" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="ED20" s="13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="EE20" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EF20" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG20" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="EH20" s="33">
+      <c r="EG20" s="33">
         <v>0.22358175750834267</v>
+      </c>
+      <c r="EH20" s="13">
+        <v>0.20100000000000007</v>
       </c>
       <c r="EI20" s="13">
         <v>0.20100000000000007</v>
       </c>
       <c r="EJ20" s="13">
-        <v>0.20100000000000007</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="EK20" s="13">
-        <v>2.0990000000000002</v>
+        <v>0</v>
       </c>
       <c r="EL20" s="13">
         <v>0</v>
@@ -9702,15 +9644,12 @@
         <v>0</v>
       </c>
       <c r="FE20" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF20" s="13">
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="44">
         <v>1</v>
@@ -9758,7 +9697,7 @@
         <v>65</v>
       </c>
       <c r="BF21" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG21" s="13">
         <f t="shared" si="0"/>
@@ -9829,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="CC21" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD21" s="13">
         <v>0</v>
@@ -9967,7 +9906,7 @@
         <v>31</v>
       </c>
       <c r="DW21" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX21" s="13">
         <v>350</v>
@@ -9978,38 +9917,38 @@
       <c r="DZ21" s="13">
         <v>0</v>
       </c>
-      <c r="EA21" s="13" t="s">
-        <v>163</v>
+      <c r="EA21" s="13">
+        <v>0</v>
       </c>
       <c r="EB21" s="13">
         <v>0</v>
       </c>
       <c r="EC21" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EE21" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EF21" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG21" s="13">
         <v>0.87</v>
       </c>
-      <c r="EH21" s="33">
+      <c r="EG21" s="33">
         <v>0.11538461538461534</v>
+      </c>
+      <c r="EH21" s="13">
+        <v>8.9999999999999969E-2</v>
       </c>
       <c r="EI21" s="13">
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="EJ21" s="13">
-        <v>8.9999999999999969E-2</v>
+        <v>1.08</v>
       </c>
       <c r="EK21" s="13">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="EL21" s="13">
         <v>0</v>
@@ -10069,15 +10008,12 @@
         <v>0</v>
       </c>
       <c r="FE21" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF21" s="13">
         <v>0.71</v>
       </c>
     </row>
-    <row r="22" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="44">
         <v>1</v>
@@ -10187,7 +10123,7 @@
         <v>55</v>
       </c>
       <c r="BF22" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG22" s="13">
         <f t="shared" si="0"/>
@@ -10258,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="CC22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CD22" s="13">
         <v>0</v>
@@ -10407,38 +10343,38 @@
       <c r="DZ22" s="13">
         <v>0</v>
       </c>
-      <c r="EA22" s="13" t="s">
-        <v>163</v>
+      <c r="EA22" s="13">
+        <v>0</v>
       </c>
       <c r="EB22" s="13">
         <v>0</v>
       </c>
       <c r="EC22" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="ED22" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="EE22" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EF22" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG22" s="13">
         <v>1.1200000000000001</v>
       </c>
-      <c r="EH22" s="33">
+      <c r="EG22" s="33">
         <v>0.13131313131313144</v>
+      </c>
+      <c r="EH22" s="13">
+        <v>0.13000000000000012</v>
       </c>
       <c r="EI22" s="13">
         <v>0.13000000000000012</v>
       </c>
       <c r="EJ22" s="13">
-        <v>0.13000000000000012</v>
+        <v>0.77</v>
       </c>
       <c r="EK22" s="13">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="EL22" s="13">
         <v>0</v>
@@ -10498,15 +10434,12 @@
         <v>0</v>
       </c>
       <c r="FE22" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF22" s="13">
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="44">
         <v>1</v>
@@ -10616,7 +10549,7 @@
         <v>71</v>
       </c>
       <c r="BF23" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG23" s="13">
         <f t="shared" si="0"/>
@@ -10687,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="CC23" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD23" s="13">
         <v>0</v>
@@ -10836,38 +10769,38 @@
       <c r="DZ23" s="13">
         <v>0</v>
       </c>
-      <c r="EA23" s="13" t="s">
-        <v>163</v>
+      <c r="EA23" s="13">
+        <v>0</v>
       </c>
       <c r="EB23" s="13">
         <v>0</v>
       </c>
       <c r="EC23" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ED23" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EE23" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="EF23" s="13">
-        <v>6</v>
-      </c>
-      <c r="EG23" s="13">
         <v>1.18</v>
       </c>
-      <c r="EH23" s="33">
+      <c r="EG23" s="33">
         <v>0.14563106796116496</v>
+      </c>
+      <c r="EH23" s="13">
+        <v>0.14999999999999991</v>
       </c>
       <c r="EI23" s="13">
         <v>0.14999999999999991</v>
       </c>
       <c r="EJ23" s="13">
-        <v>0.14999999999999991</v>
+        <v>0.5</v>
       </c>
       <c r="EK23" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL23" s="13">
         <v>0</v>
@@ -10927,15 +10860,12 @@
         <v>0</v>
       </c>
       <c r="FE23" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF23" s="13">
         <v>6.05</v>
       </c>
     </row>
-    <row r="24" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="44">
         <v>0</v>
@@ -11045,7 +10975,7 @@
         <v>61</v>
       </c>
       <c r="BF24" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG24" s="13">
         <f t="shared" si="0"/>
@@ -11116,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="CC24" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD24" s="13">
         <v>0</v>
@@ -11265,38 +11195,38 @@
       <c r="DZ24" s="13">
         <v>0</v>
       </c>
-      <c r="EA24" s="13" t="s">
-        <v>163</v>
+      <c r="EA24" s="13">
+        <v>0</v>
       </c>
       <c r="EB24" s="13">
         <v>0</v>
       </c>
       <c r="EC24" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="ED24" s="13">
+        <v>2</v>
+      </c>
+      <c r="EE24" s="13">
         <v>14</v>
       </c>
-      <c r="EE24" s="13">
-        <v>2</v>
-      </c>
       <c r="EF24" s="13">
-        <v>14</v>
-      </c>
-      <c r="EG24" s="13">
         <v>0.61</v>
       </c>
-      <c r="EH24" s="33">
+      <c r="EG24" s="33">
+        <v>0</v>
+      </c>
+      <c r="EH24" s="13">
         <v>0</v>
       </c>
       <c r="EI24" s="13">
         <v>0</v>
       </c>
       <c r="EJ24" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EK24" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL24" s="13">
         <v>0</v>
@@ -11356,15 +11286,12 @@
         <v>0</v>
       </c>
       <c r="FE24" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF24" s="13">
         <v>2.61</v>
       </c>
     </row>
-    <row r="25" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="44">
         <v>0</v>
@@ -11536,7 +11463,7 @@
         <v>76</v>
       </c>
       <c r="BF25" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG25" s="13">
         <f t="shared" si="0"/>
@@ -11607,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="CC25" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD25" s="13">
         <v>0</v>
@@ -11745,7 +11672,7 @@
         <v>32</v>
       </c>
       <c r="DW25" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX25" s="13">
         <v>825</v>
@@ -11756,38 +11683,38 @@
       <c r="DZ25" s="13">
         <v>0</v>
       </c>
-      <c r="EA25" s="13" t="s">
-        <v>163</v>
+      <c r="EA25" s="13">
+        <v>0</v>
       </c>
       <c r="EB25" s="13">
         <v>0</v>
       </c>
       <c r="EC25" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="ED25" s="13">
-        <v>14</v>
-      </c>
-      <c r="EE25" s="13">
-        <v>1</v>
-      </c>
-      <c r="EF25" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="EG25" s="13">
+        <v>1</v>
+      </c>
+      <c r="EE25" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="EF25" s="13">
         <v>0.5</v>
       </c>
-      <c r="EH25" s="33">
+      <c r="EG25" s="33">
         <v>-0.59677419354838712</v>
+      </c>
+      <c r="EH25" s="13">
+        <v>-0.74</v>
       </c>
       <c r="EI25" s="13">
         <v>-0.74</v>
       </c>
-      <c r="EJ25" s="13">
-        <v>-0.74</v>
-      </c>
-      <c r="EK25" s="13" t="s">
-        <v>163</v>
+      <c r="EJ25" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="EK25" s="13">
+        <v>0</v>
       </c>
       <c r="EL25" s="13">
         <v>0</v>
@@ -11847,15 +11774,12 @@
         <v>0</v>
       </c>
       <c r="FE25" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF25" s="13">
         <v>2.69</v>
       </c>
     </row>
-    <row r="26" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="44">
         <v>1</v>
@@ -11965,7 +11889,7 @@
         <v>60</v>
       </c>
       <c r="BF26" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG26" s="13">
         <f t="shared" si="0"/>
@@ -12036,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="CC26" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD26" s="13">
         <v>0</v>
@@ -12186,34 +12110,34 @@
         <v>1</v>
       </c>
       <c r="EA26" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB26" s="13">
         <v>0</v>
       </c>
       <c r="EC26" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="ED26" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="EE26" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="EF26" s="13">
-        <v>6</v>
-      </c>
-      <c r="EG26" s="13">
         <v>0.71</v>
       </c>
-      <c r="EH26" s="33">
+      <c r="EG26" s="33">
         <v>2.898550724637684E-2</v>
       </c>
+      <c r="EI26" s="13">
+        <v>2.0000000000000018E-2</v>
+      </c>
       <c r="EJ26" s="13">
-        <v>2.0000000000000018E-2</v>
+        <v>0.5</v>
       </c>
       <c r="EK26" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL26" s="13">
         <v>0</v>
@@ -12273,15 +12197,12 @@
         <v>0</v>
       </c>
       <c r="FE26" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF26" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="44">
         <v>0</v>
@@ -12391,7 +12312,7 @@
         <v>54</v>
       </c>
       <c r="BF27" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG27" s="13">
         <f t="shared" si="0"/>
@@ -12462,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="CC27" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD27" s="13">
         <v>0</v>
@@ -12612,34 +12533,34 @@
         <v>1</v>
       </c>
       <c r="EA27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB27" s="13">
         <v>0</v>
       </c>
       <c r="EC27" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="ED27" s="13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="EE27" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EF27" s="13">
-        <v>8</v>
-      </c>
-      <c r="EG27" s="13">
         <v>0.95</v>
       </c>
-      <c r="EH27" s="33">
+      <c r="EG27" s="33">
         <v>-2.0618556701030948E-2</v>
       </c>
+      <c r="EI27" s="13">
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="EJ27" s="13">
-        <v>-2.0000000000000018E-2</v>
+        <v>0.99</v>
       </c>
       <c r="EK27" s="13">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="EL27" s="13">
         <v>0</v>
@@ -12699,15 +12620,12 @@
         <v>0</v>
       </c>
       <c r="FE27" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF27" s="13">
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="44">
         <v>0</v>
@@ -12879,7 +12797,7 @@
         <v>63</v>
       </c>
       <c r="BF28" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG28" s="13">
         <f t="shared" si="0"/>
@@ -12950,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="CC28" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CD28" s="13">
         <v>1</v>
@@ -13099,35 +13017,35 @@
       <c r="DZ28" s="13">
         <v>0</v>
       </c>
-      <c r="EA28" s="13" t="s">
-        <v>163</v>
+      <c r="EA28" s="13">
+        <v>0</v>
       </c>
       <c r="EB28" s="13">
         <v>0</v>
       </c>
       <c r="EC28" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="ED28" s="13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="EE28" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EF28" s="13">
-        <v>8</v>
-      </c>
-      <c r="EG28" s="13">
         <v>0.71</v>
       </c>
-      <c r="EH28" s="33">
+      <c r="EG28" s="33">
         <v>-0.1647058823529412</v>
       </c>
+      <c r="EI28" s="13">
+        <v>-0.14000000000000001</v>
+      </c>
       <c r="EJ28" s="13">
-        <v>-0.14000000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="EK28" s="13">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="EL28" s="13">
         <v>0</v>
@@ -13187,15 +13105,12 @@
         <v>0</v>
       </c>
       <c r="FE28" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF28" s="13">
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="44">
         <v>1</v>
@@ -13367,7 +13282,7 @@
         <v>67</v>
       </c>
       <c r="BF29" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG29" s="13">
         <f t="shared" si="0"/>
@@ -13438,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="CC29" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CD29" s="13">
         <v>0</v>
@@ -13588,34 +13503,34 @@
         <v>1</v>
       </c>
       <c r="EA29" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EB29" s="13">
         <v>0</v>
       </c>
       <c r="EC29" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ED29" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="EE29" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EF29" s="13">
-        <v>8</v>
-      </c>
-      <c r="EG29" s="13">
         <v>1.38</v>
       </c>
-      <c r="EH29" s="33">
+      <c r="EG29" s="33">
         <v>0.39393939393939387</v>
       </c>
+      <c r="EI29" s="13">
+        <v>0.3899999999999999</v>
+      </c>
       <c r="EJ29" s="13">
-        <v>0.3899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="EK29" s="13">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="EL29" s="13">
         <v>0</v>
@@ -13675,15 +13590,12 @@
         <v>0</v>
       </c>
       <c r="FE29" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF29" s="13">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="44">
         <v>0</v>
@@ -13793,7 +13705,7 @@
         <v>75</v>
       </c>
       <c r="BF30" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG30" s="13">
         <f t="shared" si="0"/>
@@ -13864,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="CC30" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD30" s="13">
         <v>1</v>
@@ -14013,35 +13925,35 @@
       <c r="DZ30" s="13">
         <v>0</v>
       </c>
-      <c r="EA30" s="13" t="s">
-        <v>163</v>
+      <c r="EA30" s="13">
+        <v>0</v>
       </c>
       <c r="EB30" s="13">
         <v>0</v>
       </c>
       <c r="EC30" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ED30" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="EE30" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EF30" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG30" s="13">
         <v>1.1499999999999999</v>
       </c>
-      <c r="EH30" s="33">
+      <c r="EG30" s="33">
         <v>-1.709401709401711E-2</v>
       </c>
+      <c r="EI30" s="13">
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="EJ30" s="13">
-        <v>-2.0000000000000018E-2</v>
+        <v>0.66</v>
       </c>
       <c r="EK30" s="13">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="EL30" s="13">
         <v>0</v>
@@ -14101,15 +14013,12 @@
         <v>0</v>
       </c>
       <c r="FE30" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF30" s="13">
         <v>3.42</v>
       </c>
     </row>
-    <row r="31" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="44">
         <v>0</v>
@@ -14219,7 +14128,7 @@
         <v>74</v>
       </c>
       <c r="BF31" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG31" s="13">
         <f t="shared" si="0"/>
@@ -14290,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="CC31" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD31" s="13">
         <v>0</v>
@@ -14440,34 +14349,34 @@
         <v>1</v>
       </c>
       <c r="EA31" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EB31" s="13">
         <v>0</v>
       </c>
       <c r="EC31" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ED31" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="EE31" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EF31" s="13">
-        <v>8</v>
-      </c>
-      <c r="EG31" s="13">
         <v>0.98</v>
       </c>
-      <c r="EH31" s="33">
+      <c r="EG31" s="33">
         <v>-0.10909090909090918</v>
       </c>
+      <c r="EI31" s="13">
+        <v>-0.12000000000000011</v>
+      </c>
       <c r="EJ31" s="13">
-        <v>-0.12000000000000011</v>
+        <v>0.77</v>
       </c>
       <c r="EK31" s="13">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="EL31" s="13">
         <v>0</v>
@@ -14527,15 +14436,12 @@
         <v>0</v>
       </c>
       <c r="FE31" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF31" s="13">
         <v>1.92</v>
       </c>
     </row>
-    <row r="32" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="44">
         <v>1</v>
@@ -14707,7 +14613,7 @@
         <v>70</v>
       </c>
       <c r="BF32" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG32" s="13">
         <f t="shared" si="0"/>
@@ -14778,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="CC32" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD32" s="13">
         <v>1</v>
@@ -14928,34 +14834,34 @@
         <v>1</v>
       </c>
       <c r="EA32" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB32" s="13">
         <v>0</v>
       </c>
       <c r="EC32" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="ED32" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="EE32" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="EF32" s="13">
-        <v>8</v>
-      </c>
-      <c r="EG32" s="13">
         <v>3.27</v>
       </c>
-      <c r="EH32" s="33">
+      <c r="EG32" s="33">
         <v>3.1923076923076925</v>
       </c>
+      <c r="EI32" s="13">
+        <v>2.4900000000000002</v>
+      </c>
       <c r="EJ32" s="13">
-        <v>2.4900000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="EK32" s="13">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="EL32" s="13">
         <v>0</v>
@@ -14973,10 +14879,10 @@
         <v>0</v>
       </c>
       <c r="EQ32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER32" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES32" s="13">
         <v>0</v>
@@ -15015,15 +14921,12 @@
         <v>0</v>
       </c>
       <c r="FE32" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF32" s="13">
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" s="44">
         <v>1</v>
@@ -15195,7 +15098,7 @@
         <v>59</v>
       </c>
       <c r="BF33" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG33" s="13">
         <f t="shared" si="0"/>
@@ -15266,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="CC33" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CD33" s="13">
         <v>0</v>
@@ -15415,35 +15318,35 @@
       <c r="DZ33" s="13">
         <v>0</v>
       </c>
-      <c r="EA33" s="13" t="s">
-        <v>163</v>
+      <c r="EA33" s="13">
+        <v>0</v>
       </c>
       <c r="EB33" s="13">
         <v>0</v>
       </c>
       <c r="EC33" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="ED33" s="13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="EE33" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EF33" s="13">
-        <v>8</v>
-      </c>
-      <c r="EG33" s="13">
         <v>1.01</v>
       </c>
-      <c r="EH33" s="33">
+      <c r="EG33" s="33">
         <v>0.23170731707317083</v>
       </c>
+      <c r="EI33" s="13">
+        <v>0.19000000000000006</v>
+      </c>
       <c r="EJ33" s="13">
-        <v>0.19000000000000006</v>
+        <v>0.69</v>
       </c>
       <c r="EK33" s="13">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="EL33" s="13">
         <v>0</v>
@@ -15461,10 +15364,10 @@
         <v>0</v>
       </c>
       <c r="EQ33" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER33" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES33" s="13">
         <v>0</v>
@@ -15503,15 +15406,12 @@
         <v>0</v>
       </c>
       <c r="FE33" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF33" s="13">
         <v>0.78</v>
       </c>
     </row>
-    <row r="34" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="44">
         <v>1</v>
@@ -15683,7 +15583,7 @@
         <v>54</v>
       </c>
       <c r="BF34" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG34" s="13">
         <f t="shared" si="0"/>
@@ -15754,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="CC34" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD34" s="13">
         <v>0</v>
@@ -15903,35 +15803,35 @@
       <c r="DZ34" s="13">
         <v>0</v>
       </c>
-      <c r="EA34" s="13" t="s">
-        <v>163</v>
+      <c r="EA34" s="13">
+        <v>0</v>
       </c>
       <c r="EB34" s="13">
         <v>0</v>
       </c>
       <c r="EC34" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="ED34" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="EE34" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EF34" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG34" s="13">
         <v>0.99</v>
       </c>
-      <c r="EH34" s="33">
+      <c r="EG34" s="33">
         <v>0.11235955056179772</v>
       </c>
+      <c r="EI34" s="13">
+        <v>9.9999999999999978E-2</v>
+      </c>
       <c r="EJ34" s="13">
-        <v>9.9999999999999978E-2</v>
+        <v>1.02</v>
       </c>
       <c r="EK34" s="13">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="EL34" s="13">
         <v>0</v>
@@ -15949,10 +15849,10 @@
         <v>0</v>
       </c>
       <c r="EQ34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER34" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES34" s="13">
         <v>0</v>
@@ -15991,15 +15891,12 @@
         <v>0</v>
       </c>
       <c r="FE34" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF34" s="13">
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="44">
         <v>0</v>
@@ -16171,7 +16068,7 @@
         <v>63</v>
       </c>
       <c r="BF35" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG35" s="13">
         <f t="shared" si="0"/>
@@ -16242,7 +16139,7 @@
         <v>0</v>
       </c>
       <c r="CC35" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD35" s="13">
         <v>0</v>
@@ -16278,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="CO35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CP35" s="13">
         <v>0</v>
@@ -16311,25 +16208,25 @@
         <v>0</v>
       </c>
       <c r="CZ35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DA35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DB35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DC35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DD35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DE35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DF35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DG35" s="13">
         <v>0</v>
@@ -16380,7 +16277,7 @@
         <v>38</v>
       </c>
       <c r="DW35" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX35" s="13">
         <v>220</v>
@@ -16391,35 +16288,35 @@
       <c r="DZ35" s="13">
         <v>0</v>
       </c>
-      <c r="EA35" s="13" t="s">
-        <v>163</v>
+      <c r="EA35" s="13">
+        <v>0</v>
       </c>
       <c r="EB35" s="13">
         <v>0</v>
       </c>
       <c r="EC35" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="ED35" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="EE35" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EF35" s="13">
-        <v>7</v>
-      </c>
-      <c r="EG35" s="13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="EH35" s="33">
+      <c r="EG35" s="33">
         <v>-6.5573770491803338E-2</v>
       </c>
-      <c r="EJ35" s="13">
+      <c r="EI35" s="13">
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="EK35" s="13" t="s">
-        <v>163</v>
+      <c r="EJ35" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="EK35" s="13">
+        <v>0</v>
       </c>
       <c r="EL35" s="13">
         <v>0</v>
@@ -16479,15 +16376,12 @@
         <v>0</v>
       </c>
       <c r="FE35" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF35" s="13">
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="44">
         <v>1</v>
@@ -16659,7 +16553,7 @@
         <v>73</v>
       </c>
       <c r="BF36" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG36" s="13">
         <f t="shared" si="0"/>
@@ -16679,7 +16573,7 @@
         <v>76</v>
       </c>
       <c r="BL36" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BM36" s="13">
         <v>0</v>
@@ -16730,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="CC36" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CD36" s="13">
         <v>1</v>
@@ -16879,35 +16773,35 @@
       <c r="DZ36" s="13">
         <v>0</v>
       </c>
-      <c r="EA36" s="13" t="s">
-        <v>163</v>
+      <c r="EA36" s="13">
+        <v>0</v>
       </c>
       <c r="EB36" s="13">
         <v>0</v>
       </c>
       <c r="EC36" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="ED36" s="13">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="EE36" s="13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="EF36" s="13">
-        <v>15</v>
-      </c>
-      <c r="EG36" s="13">
         <v>1.52</v>
       </c>
-      <c r="EH36" s="33">
+      <c r="EG36" s="33">
         <v>0.40740740740740733</v>
       </c>
-      <c r="EJ36" s="13">
+      <c r="EI36" s="13">
         <v>0.43999999999999995</v>
       </c>
-      <c r="EK36" s="13" t="s">
-        <v>163</v>
+      <c r="EJ36" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="EK36" s="13">
+        <v>0</v>
       </c>
       <c r="EL36" s="13">
         <v>0</v>
@@ -16967,15 +16861,12 @@
         <v>0</v>
       </c>
       <c r="FE36" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF36" s="13">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="47">
         <v>0</v>
@@ -17302,30 +17193,33 @@
       <c r="DZ37" s="13">
         <v>0</v>
       </c>
+      <c r="EA37" s="13">
+        <v>0</v>
+      </c>
       <c r="EB37" s="13">
         <v>0</v>
       </c>
       <c r="EC37" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="ED37" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="EE37" s="13">
-        <v>3</v>
-      </c>
-      <c r="EF37" s="13">
         <v>18</v>
       </c>
+      <c r="EF37" s="33">
+        <v>0.89999997615814209</v>
+      </c>
       <c r="EG37" s="33">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="EH37" s="33">
-        <v>1</v>
-      </c>
-      <c r="EK37" s="13">
+        <v>1</v>
+      </c>
+      <c r="EJ37" s="13">
         <v>0.60000002384185791</v>
       </c>
+      <c r="EM37" s="13">
+        <v>0</v>
+      </c>
       <c r="EN37" s="13">
         <v>0</v>
       </c>
@@ -17378,15 +17272,12 @@
         <v>0</v>
       </c>
       <c r="FE37" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF37" s="13">
         <v>0.69999998807907104</v>
       </c>
     </row>
-    <row r="38" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="47">
         <v>0</v>
@@ -17713,30 +17604,33 @@
       <c r="DZ38" s="13">
         <v>0</v>
       </c>
+      <c r="EA38" s="13">
+        <v>0</v>
+      </c>
       <c r="EB38" s="13">
         <v>0</v>
       </c>
       <c r="EC38" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="ED38" s="13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="EE38" s="13">
-        <v>1</v>
-      </c>
-      <c r="EF38" s="13">
         <v>8</v>
+      </c>
+      <c r="EF38" s="33">
+        <v>0.5</v>
       </c>
       <c r="EG38" s="33">
         <v>0.5</v>
       </c>
-      <c r="EH38" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="EK38" s="13">
+      <c r="EJ38" s="13">
         <v>0.60000002384185791</v>
       </c>
+      <c r="EM38" s="13">
+        <v>0</v>
+      </c>
       <c r="EN38" s="13">
         <v>0</v>
       </c>
@@ -17789,15 +17683,12 @@
         <v>0</v>
       </c>
       <c r="FE38" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF38" s="13">
         <v>2.2999999523162842</v>
       </c>
     </row>
-    <row r="39" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="47">
         <v>0</v>
@@ -17985,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="CC39" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CD39" s="36">
         <v>0</v>
@@ -18128,31 +18019,33 @@
       <c r="DZ39" s="36">
         <v>0</v>
       </c>
-      <c r="EA39" s="36"/>
+      <c r="EA39" s="36">
+        <v>0</v>
+      </c>
       <c r="EB39" s="36">
         <v>0</v>
       </c>
       <c r="EC39" s="36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="ED39" s="36">
+        <v>1</v>
+      </c>
+      <c r="EE39" s="36">
         <v>9</v>
       </c>
-      <c r="EE39" s="36">
-        <v>1</v>
-      </c>
-      <c r="EF39" s="36">
-        <v>9</v>
-      </c>
-      <c r="EG39" s="38">
+      <c r="EF39" s="38">
         <v>0.9</v>
       </c>
-      <c r="EH39" s="33">
+      <c r="EG39" s="33">
         <v>0.9</v>
       </c>
-      <c r="EK39" s="36">
+      <c r="EJ39" s="36">
         <v>0.6</v>
       </c>
+      <c r="EM39" s="36">
+        <v>0</v>
+      </c>
       <c r="EN39" s="36">
         <v>0</v>
       </c>
@@ -18163,10 +18056,10 @@
         <v>0</v>
       </c>
       <c r="EQ39" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER39" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES39" s="36">
         <v>0</v>
@@ -18205,15 +18098,12 @@
         <v>0</v>
       </c>
       <c r="FE39" s="36">
-        <v>0</v>
-      </c>
-      <c r="FF39" s="36">
         <v>1.6</v>
       </c>
     </row>
-    <row r="40" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="47">
         <v>0</v>
@@ -18401,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="CC40" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CD40" s="36">
         <v>0</v>
@@ -18544,31 +18434,33 @@
       <c r="DZ40" s="36">
         <v>1</v>
       </c>
-      <c r="EA40" s="36"/>
+      <c r="EA40" s="36">
+        <v>0</v>
+      </c>
       <c r="EB40" s="36">
         <v>0</v>
       </c>
       <c r="EC40" s="36">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="ED40" s="36">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="EE40" s="36">
-        <v>2</v>
-      </c>
-      <c r="EF40" s="36">
         <v>7</v>
       </c>
-      <c r="EG40" s="38">
+      <c r="EF40" s="38">
         <v>0.8</v>
       </c>
-      <c r="EH40" s="33">
+      <c r="EG40" s="33">
         <v>0.57142857142857151</v>
       </c>
-      <c r="EK40" s="36">
+      <c r="EJ40" s="36">
         <v>0.5</v>
       </c>
+      <c r="EM40" s="36">
+        <v>0</v>
+      </c>
       <c r="EN40" s="36">
         <v>0</v>
       </c>
@@ -18621,15 +18513,12 @@
         <v>0</v>
       </c>
       <c r="FE40" s="36">
-        <v>0</v>
-      </c>
-      <c r="FF40" s="36">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="47">
         <v>1</v>
@@ -18956,32 +18845,35 @@
       <c r="DZ41" s="13">
         <v>1</v>
       </c>
+      <c r="EA41" s="13">
+        <v>0</v>
+      </c>
       <c r="EB41" s="13">
         <v>0</v>
       </c>
       <c r="EC41" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="ED41" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="EE41" s="13">
-        <v>5</v>
-      </c>
-      <c r="EF41" s="13">
         <v>8</v>
       </c>
+      <c r="EF41" s="33">
+        <v>1.2000000476837158</v>
+      </c>
       <c r="EG41" s="33">
-        <v>1.2000000476837158</v>
-      </c>
-      <c r="EH41" s="33">
         <v>1.0909091106131052</v>
       </c>
-      <c r="EK41" s="13">
+      <c r="EJ41" s="13">
         <v>0.60000002384185791</v>
       </c>
+      <c r="EM41" s="13">
+        <v>1</v>
+      </c>
       <c r="EN41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO41" s="13">
         <v>0</v>
@@ -19032,15 +18924,12 @@
         <v>0</v>
       </c>
       <c r="FE41" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF41" s="13">
         <v>3.4000000953674316</v>
       </c>
     </row>
-    <row r="42" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="47">
         <v>0</v>
@@ -19228,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="CC42" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD42" s="36">
         <v>0</v>
@@ -19371,33 +19260,35 @@
       <c r="DZ42" s="36">
         <v>0</v>
       </c>
-      <c r="EA42" s="36"/>
+      <c r="EA42" s="36">
+        <v>0</v>
+      </c>
       <c r="EB42" s="36">
         <v>0</v>
       </c>
       <c r="EC42" s="36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ED42" s="36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="EE42" s="36">
-        <v>5</v>
-      </c>
-      <c r="EF42" s="36">
         <v>7</v>
       </c>
-      <c r="EG42" s="38">
+      <c r="EF42" s="38">
         <v>0.9</v>
       </c>
-      <c r="EH42" s="33">
+      <c r="EG42" s="33">
         <v>0.81818181818181812</v>
       </c>
-      <c r="EK42" s="36">
+      <c r="EJ42" s="36">
         <v>0.8</v>
       </c>
+      <c r="EM42" s="36">
+        <v>1</v>
+      </c>
       <c r="EN42" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO42" s="36">
         <v>0</v>
@@ -19448,15 +19339,12 @@
         <v>0</v>
       </c>
       <c r="FE42" s="36">
-        <v>0</v>
-      </c>
-      <c r="FF42" s="36">
         <v>2.4</v>
       </c>
     </row>
-    <row r="43" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="47">
         <v>0</v>
@@ -19783,32 +19671,35 @@
       <c r="DZ43" s="13">
         <v>1</v>
       </c>
+      <c r="EA43" s="13">
+        <v>0</v>
+      </c>
       <c r="EB43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC43" s="13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="ED43" s="13">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="EE43" s="13">
-        <v>6</v>
-      </c>
-      <c r="EF43" s="13">
         <v>11</v>
       </c>
+      <c r="EF43" s="33">
+        <v>1</v>
+      </c>
       <c r="EG43" s="33">
-        <v>1</v>
-      </c>
-      <c r="EH43" s="33">
         <v>0.90909088938689475</v>
       </c>
-      <c r="EK43" s="13">
+      <c r="EJ43" s="13">
         <v>0.80000001192092896</v>
       </c>
+      <c r="EM43" s="13">
+        <v>1</v>
+      </c>
       <c r="EN43" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO43" s="13">
         <v>0</v>
@@ -19859,15 +19750,12 @@
         <v>0</v>
       </c>
       <c r="FE43" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF43" s="13">
         <v>1.1000000238418579</v>
       </c>
     </row>
-    <row r="44" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B44" s="47">
         <v>0</v>
@@ -20055,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="CC44" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD44" s="36">
         <v>0</v>
@@ -20198,31 +20086,33 @@
       <c r="DZ44" s="36">
         <v>0</v>
       </c>
-      <c r="EA44" s="36"/>
+      <c r="EA44" s="36">
+        <v>0</v>
+      </c>
       <c r="EB44" s="36">
         <v>0</v>
       </c>
       <c r="EC44" s="36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="ED44" s="36">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="EE44" s="36">
-        <v>5</v>
-      </c>
-      <c r="EF44" s="36">
         <v>9</v>
       </c>
-      <c r="EG44" s="38">
-        <v>1</v>
-      </c>
-      <c r="EH44" s="33">
-        <v>1</v>
-      </c>
-      <c r="EK44" s="36">
+      <c r="EF44" s="38">
+        <v>1</v>
+      </c>
+      <c r="EG44" s="33">
+        <v>1</v>
+      </c>
+      <c r="EJ44" s="36">
         <v>0.5</v>
       </c>
+      <c r="EM44" s="36">
+        <v>0</v>
+      </c>
       <c r="EN44" s="36">
         <v>0</v>
       </c>
@@ -20275,15 +20165,12 @@
         <v>0</v>
       </c>
       <c r="FE44" s="36">
-        <v>0</v>
-      </c>
-      <c r="FF44" s="36">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45" s="47">
         <v>0</v>
@@ -20610,30 +20497,33 @@
       <c r="DZ45" s="13">
         <v>0</v>
       </c>
+      <c r="EA45" s="13">
+        <v>0</v>
+      </c>
       <c r="EB45" s="13">
         <v>0</v>
       </c>
       <c r="EC45" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="ED45" s="13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="EE45" s="13">
-        <v>1</v>
-      </c>
-      <c r="EF45" s="13">
         <v>6</v>
       </c>
+      <c r="EF45" s="33">
+        <v>0.80000001192092896</v>
+      </c>
       <c r="EG45" s="33">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="EH45" s="33">
         <v>0.88888892568188049</v>
       </c>
-      <c r="EK45" s="13">
+      <c r="EJ45" s="13">
         <v>0.5</v>
       </c>
+      <c r="EM45" s="13">
+        <v>0</v>
+      </c>
       <c r="EN45" s="13">
         <v>0</v>
       </c>
@@ -20686,15 +20576,12 @@
         <v>0</v>
       </c>
       <c r="FE45" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF45" s="13">
         <v>0.89999997615814209</v>
       </c>
     </row>
-    <row r="46" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46" s="47">
         <v>0</v>
@@ -20881,7 +20768,7 @@
         <v>0</v>
       </c>
       <c r="CC46" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD46" s="13">
         <v>1</v>
@@ -21024,30 +20911,33 @@
       <c r="DZ46" s="13">
         <v>0</v>
       </c>
+      <c r="EA46" s="13">
+        <v>0</v>
+      </c>
       <c r="EB46" s="13">
         <v>0</v>
       </c>
       <c r="EC46" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="ED46" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EE46" s="13">
-        <v>1</v>
-      </c>
-      <c r="EF46" s="13">
         <v>8</v>
+      </c>
+      <c r="EF46" s="33">
+        <v>0.80000001192092896</v>
       </c>
       <c r="EG46" s="33">
         <v>0.80000001192092896</v>
       </c>
-      <c r="EH46" s="33">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="EK46" s="13">
+      <c r="EJ46" s="13">
         <v>0.5</v>
       </c>
+      <c r="EM46" s="13">
+        <v>0</v>
+      </c>
       <c r="EN46" s="13">
         <v>0</v>
       </c>
@@ -21100,15 +20990,12 @@
         <v>0</v>
       </c>
       <c r="FE46" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF46" s="13">
         <v>1.7000000476837158</v>
       </c>
     </row>
-    <row r="47" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" s="47">
         <v>1</v>
@@ -21295,7 +21182,7 @@
         <v>0</v>
       </c>
       <c r="CC47" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD47" s="13">
         <v>0</v>
@@ -21438,30 +21325,33 @@
       <c r="DZ47" s="13">
         <v>1</v>
       </c>
+      <c r="EA47" s="13">
+        <v>0</v>
+      </c>
       <c r="EB47" s="13">
         <v>0</v>
       </c>
       <c r="EC47" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="ED47" s="13">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="EE47" s="13">
-        <v>4</v>
-      </c>
-      <c r="EF47" s="13">
         <v>6</v>
       </c>
+      <c r="EF47" s="33">
+        <v>1.2000000476837158</v>
+      </c>
       <c r="EG47" s="33">
-        <v>1.2000000476837158</v>
-      </c>
-      <c r="EH47" s="33">
         <v>1.0909091106131052</v>
       </c>
-      <c r="EK47" s="13">
+      <c r="EJ47" s="13">
         <v>2.4000000953674316</v>
       </c>
+      <c r="EM47" s="13">
+        <v>0</v>
+      </c>
       <c r="EN47" s="13">
         <v>0</v>
       </c>
@@ -21514,15 +21404,12 @@
         <v>0</v>
       </c>
       <c r="FE47" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF47" s="13">
         <v>1.8999999761581421</v>
       </c>
     </row>
-    <row r="48" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" s="47">
         <v>0</v>
@@ -21710,7 +21597,7 @@
         <v>0</v>
       </c>
       <c r="CC48" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CD48" s="36">
         <v>0</v>
@@ -21853,31 +21740,33 @@
       <c r="DZ48" s="36">
         <v>0</v>
       </c>
-      <c r="EA48" s="36"/>
+      <c r="EA48" s="36">
+        <v>0</v>
+      </c>
       <c r="EB48" s="36">
         <v>0</v>
       </c>
       <c r="EC48" s="36">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="ED48" s="36">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="EE48" s="36">
-        <v>1</v>
-      </c>
-      <c r="EF48" s="36">
         <v>7</v>
       </c>
-      <c r="EG48" s="38">
+      <c r="EF48" s="38">
         <v>0.9</v>
       </c>
-      <c r="EH48" s="33">
-        <v>1</v>
-      </c>
-      <c r="EK48" s="36">
+      <c r="EG48" s="33">
+        <v>1</v>
+      </c>
+      <c r="EJ48" s="36">
         <v>0.9</v>
       </c>
+      <c r="EM48" s="36">
+        <v>0</v>
+      </c>
       <c r="EN48" s="36">
         <v>0</v>
       </c>
@@ -21930,15 +21819,12 @@
         <v>0</v>
       </c>
       <c r="FE48" s="36">
-        <v>0</v>
-      </c>
-      <c r="FF48" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49" s="47">
         <v>0</v>
@@ -22265,32 +22151,35 @@
       <c r="DZ49" s="13">
         <v>0</v>
       </c>
+      <c r="EA49" s="13">
+        <v>0</v>
+      </c>
       <c r="EB49" s="13">
         <v>0</v>
       </c>
       <c r="EC49" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="ED49" s="13">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="EE49" s="13">
-        <v>3</v>
-      </c>
-      <c r="EF49" s="13">
         <v>10</v>
       </c>
+      <c r="EF49" s="33">
+        <v>0.89999997615814209</v>
+      </c>
       <c r="EG49" s="33">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="EH49" s="33">
         <v>0.81818177877378939</v>
       </c>
-      <c r="EK49" s="13">
+      <c r="EJ49" s="13">
         <v>0.69999998807907104</v>
       </c>
+      <c r="EM49" s="13">
+        <v>1</v>
+      </c>
       <c r="EN49" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO49" s="13">
         <v>0</v>
@@ -22341,15 +22230,12 @@
         <v>0</v>
       </c>
       <c r="FE49" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF49" s="13">
         <v>3.0999999046325684</v>
       </c>
     </row>
-    <row r="50" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="47">
         <v>0</v>
@@ -22676,30 +22562,33 @@
       <c r="DZ50" s="13">
         <v>0</v>
       </c>
+      <c r="EA50" s="13">
+        <v>0</v>
+      </c>
       <c r="EB50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC50" s="13">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="ED50" s="13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="EE50" s="13">
-        <v>1</v>
-      </c>
-      <c r="EF50" s="13">
         <v>7</v>
       </c>
+      <c r="EF50" s="33">
+        <v>0.69999998807907104</v>
+      </c>
       <c r="EG50" s="33">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="EH50" s="33">
         <v>0.77777778513637608</v>
       </c>
-      <c r="EK50" s="13">
+      <c r="EJ50" s="13">
         <v>2.4000000953674316</v>
       </c>
+      <c r="EM50" s="13">
+        <v>0</v>
+      </c>
       <c r="EN50" s="13">
         <v>0</v>
       </c>
@@ -22752,15 +22641,12 @@
         <v>0</v>
       </c>
       <c r="FE50" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF50" s="13">
         <v>1.1000000238418579</v>
       </c>
     </row>
-    <row r="51" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B51" s="47">
         <v>0</v>
@@ -22947,7 +22833,7 @@
         <v>0</v>
       </c>
       <c r="CC51" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD51" s="13">
         <v>0</v>
@@ -23090,30 +22976,33 @@
       <c r="DZ51" s="13">
         <v>0</v>
       </c>
+      <c r="EA51" s="13">
+        <v>0</v>
+      </c>
       <c r="EB51" s="13">
         <v>0</v>
       </c>
       <c r="EC51" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="ED51" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="EE51" s="13">
-        <v>1</v>
-      </c>
-      <c r="EF51" s="13">
         <v>6</v>
       </c>
+      <c r="EF51" s="33">
+        <v>0.80000001192092896</v>
+      </c>
       <c r="EG51" s="33">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="EH51" s="33">
-        <v>1</v>
-      </c>
-      <c r="EK51" s="13">
+        <v>1</v>
+      </c>
+      <c r="EJ51" s="13">
         <v>0.5</v>
       </c>
+      <c r="EM51" s="13">
+        <v>0</v>
+      </c>
       <c r="EN51" s="13">
         <v>0</v>
       </c>
@@ -23166,15 +23055,12 @@
         <v>0</v>
       </c>
       <c r="FE51" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF51" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B52" s="47">
         <v>0</v>
@@ -23361,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="CC52" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD52" s="13">
         <v>0</v>
@@ -23504,32 +23390,35 @@
       <c r="DZ52" s="13">
         <v>0</v>
       </c>
+      <c r="EA52" s="13">
+        <v>0</v>
+      </c>
       <c r="EB52" s="13">
         <v>0</v>
       </c>
       <c r="EC52" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="ED52" s="13">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="EE52" s="13">
-        <v>2</v>
-      </c>
-      <c r="EF52" s="13">
         <v>8</v>
       </c>
+      <c r="EF52" s="33">
+        <v>1.2000000476837158</v>
+      </c>
       <c r="EG52" s="33">
-        <v>1.2000000476837158</v>
-      </c>
-      <c r="EH52" s="33">
         <v>0.85714290579971086</v>
       </c>
-      <c r="EK52" s="13">
+      <c r="EJ52" s="13">
         <v>0.60000002384185791</v>
       </c>
+      <c r="EM52" s="13">
+        <v>1</v>
+      </c>
       <c r="EN52" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO52" s="13">
         <v>0</v>
@@ -23580,15 +23469,12 @@
         <v>0</v>
       </c>
       <c r="FE52" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF52" s="13">
         <v>5.4000000953674316</v>
       </c>
     </row>
-    <row r="53" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B53" s="47">
         <v>0</v>
@@ -23915,30 +23801,33 @@
       <c r="DZ53" s="13">
         <v>1</v>
       </c>
+      <c r="EA53" s="13">
+        <v>0</v>
+      </c>
       <c r="EB53" s="13">
         <v>0</v>
       </c>
       <c r="EC53" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ED53" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="EE53" s="13">
-        <v>2</v>
-      </c>
-      <c r="EF53" s="13">
         <v>8</v>
+      </c>
+      <c r="EF53" s="33">
+        <v>0.89999997615814209</v>
       </c>
       <c r="EG53" s="33">
         <v>0.89999997615814209</v>
       </c>
-      <c r="EH53" s="33">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="EK53" s="13">
+      <c r="EJ53" s="13">
         <v>0.69999998807907104</v>
       </c>
+      <c r="EM53" s="13">
+        <v>0</v>
+      </c>
       <c r="EN53" s="13">
         <v>0</v>
       </c>
@@ -23991,15 +23880,12 @@
         <v>0</v>
       </c>
       <c r="FE53" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF53" s="13">
         <v>1.2000000476837158</v>
       </c>
     </row>
-    <row r="54" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54" s="47">
         <v>0</v>
@@ -24186,7 +24072,7 @@
         <v>1</v>
       </c>
       <c r="CC54" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD54" s="13">
         <v>0</v>
@@ -24329,30 +24215,33 @@
       <c r="DZ54" s="13">
         <v>1</v>
       </c>
+      <c r="EA54" s="13">
+        <v>0</v>
+      </c>
       <c r="EB54" s="13">
         <v>0</v>
       </c>
       <c r="EC54" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="ED54" s="13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="EE54" s="13">
-        <v>3</v>
-      </c>
-      <c r="EF54" s="13">
         <v>6</v>
       </c>
+      <c r="EF54" s="33">
+        <v>2</v>
+      </c>
       <c r="EG54" s="33">
-        <v>2</v>
-      </c>
-      <c r="EH54" s="33">
         <v>0.83333330021964314</v>
       </c>
-      <c r="EK54" s="13">
+      <c r="EJ54" s="13">
         <v>0.5</v>
       </c>
+      <c r="EM54" s="13">
+        <v>0</v>
+      </c>
       <c r="EN54" s="13">
         <v>0</v>
       </c>
@@ -24405,15 +24294,12 @@
         <v>0</v>
       </c>
       <c r="FE54" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF54" s="13">
         <v>2.7000000476837158</v>
       </c>
     </row>
-    <row r="55" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="47">
         <v>0</v>
@@ -24740,30 +24626,33 @@
       <c r="DZ55" s="13">
         <v>1</v>
       </c>
+      <c r="EA55" s="13">
+        <v>0</v>
+      </c>
       <c r="EB55" s="13">
         <v>0</v>
       </c>
       <c r="EC55" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ED55" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="EE55" s="13">
-        <v>1</v>
-      </c>
-      <c r="EF55" s="13">
         <v>6</v>
       </c>
+      <c r="EF55" s="33">
+        <v>0.80000001192092896</v>
+      </c>
       <c r="EG55" s="33">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="EH55" s="33">
         <v>0.88888892568188049</v>
       </c>
-      <c r="EK55" s="13">
+      <c r="EJ55" s="13">
         <v>0.69999998807907104</v>
       </c>
+      <c r="EM55" s="13">
+        <v>0</v>
+      </c>
       <c r="EN55" s="13">
         <v>0</v>
       </c>
@@ -24816,15 +24705,12 @@
         <v>0</v>
       </c>
       <c r="FE55" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF55" s="13">
         <v>0.69999998807907104</v>
       </c>
     </row>
-    <row r="56" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B56" s="47">
         <v>0</v>
@@ -25151,30 +25037,33 @@
       <c r="DZ56" s="13">
         <v>0</v>
       </c>
+      <c r="EA56" s="13">
+        <v>0</v>
+      </c>
       <c r="EB56" s="13">
         <v>0</v>
       </c>
       <c r="EC56" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ED56" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="EE56" s="13">
-        <v>1</v>
-      </c>
-      <c r="EF56" s="13">
         <v>6</v>
       </c>
+      <c r="EF56" s="33">
+        <v>1</v>
+      </c>
       <c r="EG56" s="33">
-        <v>1</v>
-      </c>
-      <c r="EH56" s="33">
         <v>0.83333330021964314</v>
       </c>
-      <c r="EK56" s="13">
+      <c r="EJ56" s="13">
         <v>0.69999998807907104</v>
       </c>
+      <c r="EM56" s="13">
+        <v>0</v>
+      </c>
       <c r="EN56" s="13">
         <v>0</v>
       </c>
@@ -25227,15 +25116,12 @@
         <v>0</v>
       </c>
       <c r="FE56" s="13">
-        <v>0</v>
-      </c>
-      <c r="FF56" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B57" s="47">
         <v>1</v>
@@ -25423,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="CC57" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD57" s="39">
         <v>0</v>
@@ -25566,33 +25452,35 @@
       <c r="DZ57" s="39">
         <v>0</v>
       </c>
-      <c r="EA57" s="39"/>
+      <c r="EA57" s="39">
+        <v>0</v>
+      </c>
       <c r="EB57" s="39">
         <v>0</v>
       </c>
       <c r="EC57" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="ED57" s="39">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="EE57" s="39">
-        <v>2</v>
-      </c>
-      <c r="EF57" s="39">
         <v>15</v>
       </c>
-      <c r="EG57" s="41">
+      <c r="EF57" s="41">
         <v>0.8</v>
       </c>
-      <c r="EH57" s="33">
+      <c r="EG57" s="33">
         <v>1.142857142857143</v>
       </c>
-      <c r="EK57" s="39">
+      <c r="EJ57" s="39">
         <v>0.6</v>
       </c>
+      <c r="EM57" s="39">
+        <v>1</v>
+      </c>
       <c r="EN57" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO57" s="39">
         <v>0</v>
@@ -25643,15 +25531,12 @@
         <v>0</v>
       </c>
       <c r="FE57" s="39">
-        <v>0</v>
-      </c>
-      <c r="FF57" s="39">
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58" s="47">
         <v>1</v>
@@ -25980,31 +25865,33 @@
       <c r="DZ58" s="42">
         <v>0</v>
       </c>
-      <c r="EA58" s="42"/>
+      <c r="EA58" s="42">
+        <v>0</v>
+      </c>
       <c r="EB58" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC58" s="42">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="ED58" s="42">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="EE58" s="42">
-        <v>3</v>
-      </c>
-      <c r="EF58" s="42">
         <v>7</v>
       </c>
-      <c r="EG58" s="43">
+      <c r="EF58" s="43">
         <v>1.3999999761581421</v>
       </c>
-      <c r="EH58" s="33">
+      <c r="EG58" s="33">
         <v>1.0769230980844899</v>
       </c>
-      <c r="EK58" s="42">
+      <c r="EJ58" s="42">
         <v>1.2000000476837158</v>
       </c>
+      <c r="EM58" s="42">
+        <v>0</v>
+      </c>
       <c r="EN58" s="42">
         <v>0</v>
       </c>
@@ -26057,15 +25944,12 @@
         <v>0</v>
       </c>
       <c r="FE58" s="42">
-        <v>0</v>
-      </c>
-      <c r="FF58" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B59" s="47">
         <v>0</v>
@@ -26253,7 +26137,7 @@
         <v>0</v>
       </c>
       <c r="CC59" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CD59" s="39">
         <v>0</v>
@@ -26396,31 +26280,33 @@
       <c r="DZ59" s="39">
         <v>1</v>
       </c>
-      <c r="EA59" s="39"/>
+      <c r="EA59" s="39">
+        <v>0</v>
+      </c>
       <c r="EB59" s="39">
         <v>0</v>
       </c>
       <c r="EC59" s="39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ED59" s="39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="EE59" s="39">
-        <v>1</v>
-      </c>
-      <c r="EF59" s="39">
         <v>7</v>
       </c>
-      <c r="EG59" s="41">
+      <c r="EF59" s="41">
         <v>0.8</v>
       </c>
-      <c r="EH59" s="33">
+      <c r="EG59" s="33">
         <v>0.66666666666666674</v>
       </c>
-      <c r="EK59" s="39">
+      <c r="EJ59" s="39">
         <v>0.8</v>
       </c>
+      <c r="EM59" s="39">
+        <v>0</v>
+      </c>
       <c r="EN59" s="39">
         <v>0</v>
       </c>
@@ -26473,15 +26359,12 @@
         <v>0</v>
       </c>
       <c r="FE59" s="39">
-        <v>0</v>
-      </c>
-      <c r="FF59" s="39">
         <v>1.2</v>
       </c>
     </row>
-    <row r="60" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B60" s="47">
         <v>0</v>
@@ -26810,31 +26693,33 @@
       <c r="DZ60" s="42">
         <v>0</v>
       </c>
-      <c r="EA60" s="42"/>
+      <c r="EA60" s="42">
+        <v>0</v>
+      </c>
       <c r="EB60" s="42">
         <v>0</v>
       </c>
       <c r="EC60" s="42">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="ED60" s="42">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="EE60" s="42">
-        <v>2</v>
-      </c>
-      <c r="EF60" s="42">
         <v>15</v>
       </c>
-      <c r="EG60" s="43">
+      <c r="EF60" s="43">
         <v>0.89999997615814209</v>
       </c>
-      <c r="EH60" s="33">
+      <c r="EG60" s="33">
         <v>0.81818177877378939</v>
       </c>
-      <c r="EK60" s="42">
+      <c r="EJ60" s="42">
         <v>0.5</v>
       </c>
+      <c r="EM60" s="42">
+        <v>0</v>
+      </c>
       <c r="EN60" s="42">
         <v>0</v>
       </c>
@@ -26887,15 +26772,12 @@
         <v>0</v>
       </c>
       <c r="FE60" s="42">
-        <v>0</v>
-      </c>
-      <c r="FF60" s="42">
         <v>4.4000000953674316</v>
       </c>
     </row>
-    <row r="61" spans="1:162" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:161" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B61" s="47">
         <v>1</v>
@@ -27224,31 +27106,33 @@
       <c r="DZ61" s="42">
         <v>1</v>
       </c>
-      <c r="EA61" s="42"/>
+      <c r="EA61" s="42">
+        <v>0</v>
+      </c>
       <c r="EB61" s="42">
         <v>0</v>
       </c>
       <c r="EC61" s="42">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ED61" s="42">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="EE61" s="42">
-        <v>9</v>
-      </c>
-      <c r="EF61" s="42">
         <v>8</v>
       </c>
-      <c r="EG61" s="43">
+      <c r="EF61" s="43">
         <v>3.9000000953674316</v>
       </c>
-      <c r="EH61" s="33">
+      <c r="EG61" s="33">
         <v>1.0833333885228207</v>
       </c>
-      <c r="EK61" s="42">
+      <c r="EJ61" s="42">
         <v>0.5</v>
       </c>
+      <c r="EM61" s="42">
+        <v>0</v>
+      </c>
       <c r="EN61" s="42">
         <v>0</v>
       </c>
@@ -27301,9 +27185,6 @@
         <v>0</v>
       </c>
       <c r="FE61" s="42">
-        <v>0</v>
-      </c>
-      <c r="FF61" s="42">
         <v>4.5</v>
       </c>
     </row>
